--- a/code/BBP_countries.xlsx
+++ b/code/BBP_countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="179">
   <si>
     <t>Country Name</t>
   </si>
@@ -6887,8 +6887,8 @@
       <c r="AC65" t="s">
         <v>178</v>
       </c>
-      <c r="AD65" t="s">
-        <v>178</v>
+      <c r="AD65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:30">
